--- a/swings/2021-11-22/KUCOIN_SPOT_LOCG_USDT.xlsx
+++ b/swings/2021-11-22/KUCOIN_SPOT_LOCG_USDT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>SymbolDb</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>swing_price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +556,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -603,6 +609,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -655,6 +662,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -709,6 +717,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O5" t="n">
+        <v>0.2557</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -763,6 +774,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O6" t="n">
+        <v>0.258</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -815,6 +829,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -869,6 +884,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O8" t="n">
+        <v>0.254</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -921,6 +939,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -975,6 +994,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O10" t="n">
+        <v>0.25631</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1029,6 +1051,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O11" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1083,6 +1108,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O12" t="n">
+        <v>0.25341</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1135,6 +1163,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1189,6 +1218,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O14" t="n">
+        <v>0.25161</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1243,6 +1275,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O15" t="n">
+        <v>0.25426</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1295,6 +1330,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1347,6 +1383,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1401,6 +1438,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O18" t="n">
+        <v>0.25001</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1453,6 +1493,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1507,6 +1548,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O20" t="n">
+        <v>0.25836</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1559,6 +1603,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1613,6 +1658,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O22" t="n">
+        <v>0.25485</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1667,6 +1715,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O23" t="n">
+        <v>0.25803</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1719,6 +1770,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1773,6 +1825,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O25" t="n">
+        <v>0.25416</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1827,6 +1882,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O26" t="n">
+        <v>0.25859</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1879,6 +1937,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1933,6 +1992,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O28" t="n">
+        <v>0.25599</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1987,6 +2049,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O29" t="n">
+        <v>0.25887</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2039,6 +2104,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2093,6 +2159,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O31" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2147,6 +2216,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O32" t="n">
+        <v>0.25273</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2201,6 +2273,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O33" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2253,6 +2328,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2307,6 +2383,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O35" t="n">
+        <v>0.25271</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2361,6 +2440,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O36" t="n">
+        <v>0.25002</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2413,6 +2495,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2465,6 +2548,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2519,6 +2603,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O39" t="n">
+        <v>0.25271</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2573,6 +2660,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O40" t="n">
+        <v>0.25018</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2627,6 +2717,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O41" t="n">
+        <v>0.25264</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2679,6 +2772,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2733,6 +2827,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O43" t="n">
+        <v>0.24943</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2785,6 +2882,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2839,6 +2937,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O45" t="n">
+        <v>0.2543</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2891,6 +2992,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2945,6 +3047,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O47" t="n">
+        <v>0.24903</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2999,6 +3104,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O48" t="n">
+        <v>0.25648</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3051,6 +3159,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3103,6 +3212,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3157,6 +3267,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O51" t="n">
+        <v>0.24694</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3211,6 +3324,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O52" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3263,6 +3379,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3315,6 +3432,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3369,6 +3487,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O55" t="n">
+        <v>0.24659</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3423,6 +3544,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O56" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3475,6 +3599,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3529,6 +3654,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O58" t="n">
+        <v>0.24712</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3581,6 +3709,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3635,6 +3764,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O60" t="n">
+        <v>0.25617</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3687,6 +3819,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3741,6 +3874,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O62" t="n">
+        <v>0.25349</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3795,6 +3931,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O63" t="n">
+        <v>0.256</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3849,6 +3988,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O64" t="n">
+        <v>0.254</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3903,6 +4045,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O65" t="n">
+        <v>0.256</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3957,6 +4102,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O66" t="n">
+        <v>0.25104</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -4011,6 +4159,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O67" t="n">
+        <v>0.25461</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4065,6 +4216,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O68" t="n">
+        <v>0.25172</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4119,6 +4273,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O69" t="n">
+        <v>0.256</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4173,6 +4330,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O70" t="n">
+        <v>0.24556</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4227,6 +4387,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O71" t="n">
+        <v>0.25046</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4281,6 +4444,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O72" t="n">
+        <v>0.24829</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4335,6 +4501,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O73" t="n">
+        <v>0.25013</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4389,6 +4558,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O74" t="n">
+        <v>0.246</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4441,6 +4613,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4493,6 +4666,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4547,6 +4721,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O77" t="n">
+        <v>0.25398</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4599,6 +4776,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4653,6 +4831,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O79" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4705,6 +4886,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4757,6 +4939,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4809,6 +4992,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4861,6 +5045,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4915,6 +5100,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O84" t="n">
+        <v>0.256</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4967,6 +5155,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -5019,6 +5208,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5073,6 +5263,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O87" t="n">
+        <v>0.25297</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5125,6 +5318,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5179,6 +5373,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O89" t="n">
+        <v>0.25914</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5233,6 +5430,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O90" t="n">
+        <v>0.25468</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5285,6 +5485,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5339,6 +5540,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O92" t="n">
+        <v>0.25902</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5393,6 +5597,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O93" t="n">
+        <v>0.25712</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5445,6 +5652,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5497,6 +5705,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5551,6 +5760,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O96" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5603,6 +5815,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5657,6 +5870,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O98" t="n">
+        <v>0.25629</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5709,6 +5925,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5763,6 +5980,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O100" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5817,6 +6037,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O101" t="n">
+        <v>0.25439</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5871,6 +6094,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O102" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5925,6 +6151,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O103" t="n">
+        <v>0.25774</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5979,6 +6208,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O104" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -6031,6 +6263,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6085,6 +6318,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O106" t="n">
+        <v>0.2444</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6137,6 +6373,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6191,6 +6428,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O108" t="n">
+        <v>0.26143</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6245,6 +6485,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O109" t="n">
+        <v>0.2432</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6299,6 +6542,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O110" t="n">
+        <v>0.25836</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6351,6 +6597,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6403,6 +6650,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6455,6 +6703,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6507,6 +6756,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6561,6 +6811,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O115" t="n">
+        <v>0.24198</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6615,6 +6868,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O116" t="n">
+        <v>0.24775</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6669,6 +6925,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O117" t="n">
+        <v>0.24086</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6721,6 +6980,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6775,6 +7035,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O119" t="n">
+        <v>0.24367</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6829,6 +7092,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O120" t="n">
+        <v>0.24023</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6881,6 +7147,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6933,6 +7200,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6985,6 +7253,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7039,6 +7308,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O124" t="n">
+        <v>0.24562</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7091,6 +7363,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7143,6 +7416,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7195,6 +7469,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7249,6 +7524,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O128" t="n">
+        <v>0.23822</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7303,6 +7581,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O129" t="n">
+        <v>0.24117</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7357,6 +7638,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O130" t="n">
+        <v>0.23882</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7409,6 +7693,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7463,6 +7748,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O132" t="n">
+        <v>0.24383</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7517,6 +7805,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O133" t="n">
+        <v>0.24123</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7569,6 +7860,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7623,6 +7915,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O135" t="n">
+        <v>0.24481</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7677,6 +7972,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O136" t="n">
+        <v>0.24123</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7729,6 +8027,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7781,6 +8080,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7833,6 +8133,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7885,6 +8186,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7939,6 +8241,9 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O141" t="n">
+        <v>0.294</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7991,6 +8296,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8043,6 +8349,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8095,6 +8402,7 @@
           <t>LOCGUSDT</t>
         </is>
       </c>
+      <c r="O144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8148,6 +8456,9 @@
         <is>
           <t>LOCGUSDT</t>
         </is>
+      </c>
+      <c r="O145" t="n">
+        <v>0.26566</v>
       </c>
     </row>
   </sheetData>
